--- a/10.7.0.1RC_FeedbackfromRPAT_20191113.xlsx
+++ b/10.7.0.1RC_FeedbackfromRPAT_20191113.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C68CC-9811-4128-A10A-EEBB751A733A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62603708-D8D2-454E-80F9-6887F2AD427E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,6 +913,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -921,12 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1678,10 +1678,10 @@
   <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1798,32 +1798,32 @@
         <v>38</v>
       </c>
       <c r="Q3" s="13"/>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="25"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="27"/>
     </row>
     <row r="4" spans="1:41" s="22" customFormat="1" ht="52.5">
       <c r="B4" s="3">
@@ -2135,11 +2135,11 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="3"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2156,11 +2156,11 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="3"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>

--- a/10.7.0.1RC_FeedbackfromRPAT_20191113.xlsx
+++ b/10.7.0.1RC_FeedbackfromRPAT_20191113.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62603708-D8D2-454E-80F9-6887F2AD427E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA1F64E-AD3B-488A-812F-C85F642A5D10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1678,10 +1678,10 @@
   <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:Q4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
